--- a/Data/Data_Raw/Country codes & metadata/Texts for briefs.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/Texts for briefs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{67091234-C320-4288-B14B-B7F991048018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7D1005-344A-45D9-B5FD-6593427AB12D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA703F8-9FFC-4997-8E83-3AAA7B861114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3720" yWindow="2655" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description for indicators" sheetId="1" r:id="rId1"/>
@@ -509,9 +509,6 @@
     <t>**BCG vaccination (%).** The percentage of live births who received the BCG vaccine against tubeculosis is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
-    <t>**Diphtheria vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria vaccine is **`ind_value' percent** (*`ind_year'*)</t>
-  </si>
-  <si>
     <t>**Hepatitis B vaccination, third dose (%).** The percentage of surviving infants who received the hepatitis B vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>eap_dwap_mf_a</t>
+  </si>
+  <si>
+    <t>**DTP vaccination, third dose (%).** The percentage of surviving infants who received the third dose of diphtheria, tetanus and pertussis vaccine is **`ind_value' percent** (*`ind_year'*)</t>
   </si>
 </sst>
 </file>
@@ -906,19 +906,19 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -952,7 +952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -969,7 +969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -986,7 +986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1139,9 +1139,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>97</v>
@@ -1156,7 +1156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1816,12 +1816,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
@@ -1833,12 +1833,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
@@ -1850,7 +1850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>119</v>
       </c>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -2103,12 +2103,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -2120,12 +2120,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>113</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
@@ -2134,12 +2134,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
@@ -2148,12 +2148,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>115</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
@@ -2162,12 +2162,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>116</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
         <v>86</v>
@@ -2176,12 +2176,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>117</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
         <v>86</v>
@@ -2190,12 +2190,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>120</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>
